--- a/result/label_result.xlsx
+++ b/result/label_result.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['KR20180054377', 'US20150128062', 'JP2010097465']</t>
+          <t>['JP2010097465', 'US20150128062', 'KR20180054377']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR20120003588']</t>
+          <t>['KR20120003588', 'KR20140036555']</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['KR102404585', 'KR20120060597']</t>
+          <t>['KR20120060597', 'KR102404585']</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['KR102407595', 'KR102388442']</t>
+          <t>['KR102388442', 'KR102407595']</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['US20110014985', 'KR20110007419']</t>
+          <t>['KR20110007419', 'US20110014985']</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['JP5159375', 'US8113959', 'US20070218987', 'US20180104595', 'US8230045', 'US9808722', 'US20090228550']</t>
+          <t>['US20180104595', 'US20090228550', 'US20070218987', 'US8230045', 'US8113959', 'US9808722', 'JP5159375']</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1618,7 +1618,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KR20180054377</t>
+          <t>JP2010097465</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JP2010097465</t>
+          <t>KR20180054377</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JP5159375</t>
+          <t>US20180104595</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>US8113959</t>
+          <t>US20070218987</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>US20070218987</t>
+          <t>US8113959</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>US20180104595</t>
+          <t>JP5159375</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
